--- a/data/trans_camb/P14_1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P14_1-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,38</t>
+          <t>13,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,42</t>
+          <t>17,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,63</t>
+          <t>15,66</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,33; 17,42</t>
+          <t>6,97; 18,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,75; 21,26</t>
+          <t>12,26; 23,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,81; 17,69</t>
+          <t>11,84; 19,34</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>406,75%</t>
+          <t>521,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1281,96%</t>
+          <t>972,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>712,31%</t>
+          <t>732,65%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>113,09; 1271,76</t>
+          <t>95,79; 2069,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>451,94; 5319,49</t>
+          <t>236,44; 4366,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>342,94; 1474,19</t>
+          <t>273,83; 2191,95</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>14,49</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,42</t>
+          <t>15,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,91</t>
+          <t>15,14</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,99; 20,42</t>
+          <t>10,81; 18,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,88; 21,18</t>
+          <t>10,35; 20,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,07; 19,45</t>
+          <t>11,87; 18,48</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>890,25%</t>
+          <t>589,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>334,31%</t>
+          <t>281,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>479,02%</t>
+          <t>368,83%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>442,07; 1851,55</t>
+          <t>243,44; 1440,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>159,99; 618,91</t>
+          <t>91,58; 578,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>273,88; 788,57</t>
+          <t>178,36; 643,93</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>22,56</t>
+          <t>24,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>25,07</t>
+          <t>24,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>23,84</t>
+          <t>24,14</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,6; 27,31</t>
+          <t>18,97; 29,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,95; 29,6</t>
+          <t>19,62; 28,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,96; 27,16</t>
+          <t>20,68; 27,7</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>793,67%</t>
+          <t>976,95%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1033,49%</t>
+          <t>770,81%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>904,52%</t>
+          <t>858,67%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>393,61; 1579,23</t>
+          <t>438,6; 2511,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>524,29; 2257,6</t>
+          <t>393,41; 1652,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>584,45; 1466,5</t>
+          <t>496,18; 1578,02</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,46</t>
+          <t>17,55</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>19,36</t>
+          <t>18,77</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>18,43</t>
+          <t>18,12</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,11; 19,91</t>
+          <t>12,66; 23,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,87; 21,82</t>
+          <t>14,55; 23,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,87; 20,36</t>
+          <t>15,02; 22,13</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>729,43%</t>
+          <t>624,53%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>558,52%</t>
+          <t>689,5%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>626,33%</t>
+          <t>654,94%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>474,19; 1130,05</t>
+          <t>321,34; 1295,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>334,65; 886,17</t>
+          <t>380,05; 1298,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>452,82; 871,7</t>
+          <t>430,41; 1052,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>17,4</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>19,12</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>18,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>14,82; 19,9</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>16,75; 21,32</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>16,64; 19,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>664,09%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>544,29%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>594,08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>429,85; 1027,78</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>351,66; 772,98</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>432,36; 797,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P14_1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P14_1-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>13,21</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>17,68</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>15,66</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>13.29204857476919</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>17.35116214408286</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>15.53473338616326</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>6,97; 18,78</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>12,26; 23,01</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>11,84; 19,34</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>6.857441871816874</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>11.64008079954856</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>11.41678882266111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>521,15%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>972,81%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>732,65%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>18.95322181241363</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>22.61535570984491</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>19.31582158224351</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>95,79; 2069,11</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>236,44; 4366,16</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>273,83; 2191,95</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>5.114099915860329</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>8.38948114038552</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>6.748609631390846</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>14,49</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>15,86</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>15,14</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.91031892651738</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>1.856736518704071</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>2.471512603823669</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>10,81; 18,88</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>10,35; 20,22</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>11,87; 18,48</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>20.42343151302444</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>39.33267323045252</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>18.89518628485827</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>589,05%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>281,18%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>368,83%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>14.58199460587927</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>16.60829803687795</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>15.56210106737568</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>243,44; 1440,41</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>91,58; 578,48</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>178,36; 643,93</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>10.86283046987168</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>11.37625990787665</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>12.47428578404612</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>24,26</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>24,03</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>24,14</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>18.97149879177132</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>20.88408115061048</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>18.83933385146853</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>18,97; 29,73</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>19,62; 28,69</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>20,68; 27,7</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>6.0589936770576</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>3.259755071137622</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>4.099568675060887</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>976,95%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>770,81%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>858,67%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>2.419236976985053</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>1.257627001046458</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>2.15862541851615</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>438,6; 2511,21</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>393,41; 1652,7</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>496,18; 1578,02</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>14.51528441692579</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>6.603543470445489</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>7.142641677636723</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>17,55</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>18,77</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>18,12</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>24.13492161967926</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>24.49082256828947</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>24.32962670987074</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>12,66; 23,57</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>14,55; 23,68</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>15,02; 22,13</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>18.70360489233224</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>20.03037985272193</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>20.83113036265642</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>624,53%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>689,5%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>654,94%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>29.63639249819845</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>29.29044621918489</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>27.93485848327378</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>321,34; 1295,93</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>380,05; 1298,53</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>430,41; 1052,46</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>9.672902066669407</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>8.168746968016116</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>8.837473912217577</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>17,4</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>19,12</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>18,27</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>4.143606127171017</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>4.202463013806363</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>5.061033785091295</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>14,82; 19,9</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>16,75; 21,32</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>16,64; 19,94</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>24.88512224389154</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>17.47586454347572</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>16.38081782470978</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>664,09%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>544,29%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>594,08%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>17.42002800501152</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>19.31130703710098</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>18.4032787997573</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>429,85; 1027,78</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>351,66; 772,98</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>432,36; 797,51</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>14.75881955686961</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>16.53838534169089</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>16.53506753464753</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>20.38339402786753</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>22.25034421030348</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>20.64893276879025</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>7.051666461936071</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>5.098294359831099</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>5.82507614615275</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>4.072255175649332</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>2.841050205258415</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>3.995121083042148</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>13.05240294726195</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>8.290279151782816</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>8.650772111274872</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
